--- a/data/outputs/OR/54.xlsx
+++ b/data/outputs/OR/54.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ145"/>
+  <dimension ref="A1:BR145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +922,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1358,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1564,6 +1572,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1773,6 +1782,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1990,6 +2000,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2199,6 +2210,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2412,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2605,6 +2618,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2822,6 +2836,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3031,6 +3046,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3240,6 +3256,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3457,6 +3474,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3666,6 +3684,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3863,6 +3882,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4080,6 +4100,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4285,6 +4306,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4494,6 +4516,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4719,6 +4742,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4936,6 +4960,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5149,6 +5174,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5374,6 +5400,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5579,6 +5606,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5788,6 +5816,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6005,6 +6034,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6226,6 +6256,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6435,6 +6466,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6648,6 +6680,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6857,6 +6890,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7058,6 +7092,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7271,6 +7306,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7480,6 +7516,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7693,6 +7730,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7914,6 +7952,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8131,6 +8170,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8348,6 +8388,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8565,6 +8606,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8766,6 +8808,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8975,6 +9018,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9184,6 +9228,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9389,6 +9434,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9598,6 +9644,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9807,6 +9854,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10016,6 +10064,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10217,6 +10266,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10434,6 +10484,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10635,6 +10686,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10836,6 +10888,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11049,6 +11102,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11266,6 +11320,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11499,6 +11554,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11708,6 +11764,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11909,6 +11966,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12126,6 +12184,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12335,6 +12394,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12540,6 +12600,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12749,6 +12810,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12950,6 +13012,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13151,6 +13214,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13360,6 +13424,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13589,6 +13654,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13794,6 +13860,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14003,6 +14070,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14208,6 +14276,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14425,6 +14494,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14634,6 +14704,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>2512780</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14851,6 +14926,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15060,6 +15136,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15265,6 +15342,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15474,6 +15552,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15675,6 +15754,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15876,6 +15956,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16081,6 +16162,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>4159469</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16282,6 +16368,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16483,6 +16570,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16688,6 +16776,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16929,6 +17018,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17134,6 +17224,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17335,6 +17426,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17532,6 +17624,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17733,6 +17826,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17934,6 +18028,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18143,6 +18238,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18344,6 +18440,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18545,6 +18642,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18754,6 +18852,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18963,6 +19062,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19204,6 +19304,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>5610661</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19405,6 +19510,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19614,6 +19720,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19811,6 +19918,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20020,6 +20128,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20229,6 +20338,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20438,6 +20548,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20639,6 +20750,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20840,6 +20952,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21041,6 +21154,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21242,6 +21356,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21459,6 +21574,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21664,6 +21780,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21873,6 +21990,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22082,6 +22200,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22283,6 +22402,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22520,6 +22640,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22753,6 +22874,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22974,6 +23096,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23207,6 +23330,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23440,6 +23564,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>4712834</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23649,6 +23778,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23850,6 +23980,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24059,6 +24190,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24264,6 +24396,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24469,6 +24602,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24674,6 +24808,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24875,6 +25010,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25052,6 +25188,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25253,6 +25390,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25478,6 +25616,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25703,6 +25842,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25936,6 +26076,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26161,6 +26302,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26362,6 +26504,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26571,6 +26714,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26772,6 +26916,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26981,6 +27126,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27178,6 +27324,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27379,6 +27526,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27584,6 +27732,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27781,6 +27930,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27982,6 +28132,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28191,6 +28342,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28380,6 +28532,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28561,6 +28714,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28758,6 +28912,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28947,6 +29102,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29148,6 +29304,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29325,6 +29482,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29534,6 +29692,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29735,6 +29894,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29916,6 +30076,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30097,6 +30258,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30298,6 +30460,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30507,6 +30670,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30688,6 +30852,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
